--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>9426</v>
       </c>
       <c r="C2" t="n">
-        <v>9409</v>
+        <v>9403</v>
       </c>
       <c r="D2" t="n">
-        <v>8422</v>
+        <v>8336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8951004357530025</v>
+        <v>0.8865255769435286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8934861022703161</v>
+        <v>0.8843624018671759</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09891712182379482</v>
+        <v>0.09935580614203457</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08838107362614046</v>
+        <v>0.08786653935921919</v>
       </c>
       <c r="I2" t="n">
-        <v>42578763.92711</v>
+        <v>42296214.91215201</v>
       </c>
       <c r="J2" t="n">
-        <v>15056984.397049</v>
+        <v>14919465.388432</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15056984.397049</v>
+        <v>14919465.388432</v>
       </c>
       <c r="M2" t="n">
-        <v>57635748.324159</v>
+        <v>57215680.300584</v>
       </c>
       <c r="N2" t="n">
-        <v>800015568.3913001</v>
+        <v>799203716.6413001</v>
       </c>
       <c r="O2" t="n">
-        <v>782315761.3873</v>
+        <v>781503909.6373</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01882086423308752</v>
+        <v>0.01866791292104086</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01924668419098201</v>
+        <v>0.0190907111333022</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9613</v>
       </c>
       <c r="C3" t="n">
-        <v>9592</v>
+        <v>9584</v>
       </c>
       <c r="D3" t="n">
-        <v>8593</v>
+        <v>8489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8958507089241035</v>
+        <v>0.8857470784641068</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8938936856340373</v>
+        <v>0.883075002600645</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09416967298964275</v>
+        <v>0.09470491223936861</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08417767606366379</v>
+        <v>0.08363154062207429</v>
       </c>
       <c r="I3" t="n">
-        <v>44605253.56921048</v>
+        <v>44258226.35807258</v>
       </c>
       <c r="J3" t="n">
-        <v>16407599.78181438</v>
+        <v>16226745.26610873</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16407599.78181438</v>
+        <v>16226745.26610873</v>
       </c>
       <c r="M3" t="n">
-        <v>61012853.35102486</v>
+        <v>60484971.62418132</v>
       </c>
       <c r="N3" t="n">
-        <v>845765667.524587</v>
+        <v>844425385.1581769</v>
       </c>
       <c r="O3" t="n">
-        <v>828170231.5115629</v>
+        <v>826829949.145153</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01939969948157939</v>
+        <v>0.01921631626821493</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01981186857183637</v>
+        <v>0.01962525097559095</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9804</v>
       </c>
       <c r="C4" t="n">
-        <v>9778</v>
+        <v>9769</v>
       </c>
       <c r="D4" t="n">
-        <v>8757</v>
+        <v>8666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8955819185927593</v>
+        <v>0.8870918210666394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8932068543451652</v>
+        <v>0.8839249286005711</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09102432339842412</v>
+        <v>0.0912970228479114</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08130354957160343</v>
+        <v>0.08069971440228479</v>
       </c>
       <c r="I4" t="n">
-        <v>46910012.15872012</v>
+        <v>46617890.4574882</v>
       </c>
       <c r="J4" t="n">
-        <v>17742684.1456373</v>
+        <v>17606478.52025277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>17742684.1456373</v>
+        <v>17606478.52025277</v>
       </c>
       <c r="M4" t="n">
-        <v>64652696.30435742</v>
+        <v>64224368.97774097</v>
       </c>
       <c r="N4" t="n">
-        <v>890719046.291134</v>
+        <v>889877250.4101579</v>
       </c>
       <c r="O4" t="n">
-        <v>873155130.4965576</v>
+        <v>872313334.6155815</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01991950685181381</v>
+        <v>0.01978528893972475</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02032019686530062</v>
+        <v>0.02018366316503891</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>9999</v>
       </c>
       <c r="C5" t="n">
-        <v>9975</v>
+        <v>9967</v>
       </c>
       <c r="D5" t="n">
-        <v>8945</v>
+        <v>8833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8967418546365915</v>
+        <v>0.8862245409852513</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8945894589458946</v>
+        <v>0.8833883388338833</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08769144773616547</v>
+        <v>0.08817502547265936</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07844784478447846</v>
+        <v>0.07789278927892791</v>
       </c>
       <c r="I5" t="n">
-        <v>49173316.15914866</v>
+        <v>48849354.23976017</v>
       </c>
       <c r="J5" t="n">
-        <v>19132236.59040538</v>
+        <v>18954056.23277476</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>19132236.59040538</v>
+        <v>18954056.23277476</v>
       </c>
       <c r="M5" t="n">
-        <v>68305552.74955404</v>
+        <v>67803410.47253492</v>
       </c>
       <c r="N5" t="n">
-        <v>936514744.1467261</v>
+        <v>936088635.9693686</v>
       </c>
       <c r="O5" t="n">
-        <v>918913521.8614717</v>
+        <v>918487413.684114</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02042918887287468</v>
+        <v>0.02024814264852905</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02082049739745761</v>
+        <v>0.0206361632727756</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10198</v>
       </c>
       <c r="C6" t="n">
-        <v>10175</v>
+        <v>10169</v>
       </c>
       <c r="D6" t="n">
-        <v>9142</v>
+        <v>9041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8984766584766585</v>
+        <v>0.8890746386075327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8964502843694843</v>
+        <v>0.8865463816434594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08369065849923432</v>
+        <v>0.08398739077535673</v>
       </c>
       <c r="H6" t="n">
-        <v>0.075024514610708</v>
+        <v>0.07445871739556777</v>
       </c>
       <c r="I6" t="n">
-        <v>51202577.64667316</v>
+        <v>50884666.42367596</v>
       </c>
       <c r="J6" t="n">
-        <v>20543801.55848816</v>
+        <v>20382863.20657356</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20543801.55848816</v>
+        <v>20382863.20657356</v>
       </c>
       <c r="M6" t="n">
-        <v>71746379.20516133</v>
+        <v>71267529.63024952</v>
       </c>
       <c r="N6" t="n">
-        <v>982136207.3222235</v>
+        <v>982042596.0921406</v>
       </c>
       <c r="O6" t="n">
-        <v>964428661.1220922</v>
+        <v>964335049.8920094</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02091746684963429</v>
+        <v>0.02075557953156354</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02130152533478825</v>
+        <v>0.02113670265210844</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -525,52 +525,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9426</v>
+        <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9403</v>
+        <v>9453</v>
       </c>
       <c r="D2" t="n">
-        <v>8336</v>
+        <v>8370</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8865255769435286</v>
+        <v>0.8854331958108537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8843624018671759</v>
+        <v>0.8830976999366955</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09935580614203457</v>
+        <v>0.09588380880107245</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08786653935921919</v>
+        <v>0.08467477101339696</v>
       </c>
       <c r="I2" t="n">
-        <v>42296214.91215201</v>
+        <v>40683573.30702042</v>
       </c>
       <c r="J2" t="n">
-        <v>14919465.388432</v>
+        <v>14146954.60016621</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14919465.388432</v>
+        <v>14146954.60016621</v>
       </c>
       <c r="M2" t="n">
-        <v>57215680.300584</v>
+        <v>54830527.90718663</v>
       </c>
       <c r="N2" t="n">
-        <v>799203716.6413001</v>
+        <v>800605047.7172</v>
       </c>
       <c r="O2" t="n">
-        <v>781503909.6373</v>
+        <v>782905240.7132001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01866791292104086</v>
+        <v>0.01767032900992073</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0190907111333022</v>
+        <v>0.01806981721987046</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9613</v>
+        <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9584</v>
+        <v>9645</v>
       </c>
       <c r="D3" t="n">
-        <v>8489</v>
+        <v>8566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8857470784641068</v>
+        <v>0.8881285640228097</v>
       </c>
       <c r="F3" t="n">
-        <v>0.883075002600645</v>
+        <v>0.8861990482102214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09470491223936861</v>
+        <v>0.09426000800759959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08363154062207429</v>
+        <v>0.0835331293806226</v>
       </c>
       <c r="I3" t="n">
-        <v>44258226.35807258</v>
+        <v>42503835.53294694</v>
       </c>
       <c r="J3" t="n">
-        <v>16226745.26610873</v>
+        <v>14787168.70621267</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16226745.26610873</v>
+        <v>14787168.70621267</v>
       </c>
       <c r="M3" t="n">
-        <v>60484971.62418132</v>
+        <v>57291004.23915961</v>
       </c>
       <c r="N3" t="n">
-        <v>844425385.1581769</v>
+        <v>837916296.6930281</v>
       </c>
       <c r="O3" t="n">
-        <v>826829949.145153</v>
+        <v>820436120.6689579</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01921631626821493</v>
+        <v>0.01764754876420547</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01962525097559095</v>
+        <v>0.01802354666461501</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9804</v>
+        <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9769</v>
+        <v>9832</v>
       </c>
       <c r="D4" t="n">
-        <v>8666</v>
+        <v>8735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8870918210666394</v>
+        <v>0.8884255492270138</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8839249286005711</v>
+        <v>0.886082369649016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0912970228479114</v>
+        <v>0.09299641123507345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08069971440228479</v>
+        <v>0.08240248043602824</v>
       </c>
       <c r="I4" t="n">
-        <v>46617890.4574882</v>
+        <v>44349172.10058596</v>
       </c>
       <c r="J4" t="n">
-        <v>17606478.52025277</v>
+        <v>15389914.85936836</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>17606478.52025277</v>
+        <v>15389914.85936836</v>
       </c>
       <c r="M4" t="n">
-        <v>64224368.97774097</v>
+        <v>59739086.95995432</v>
       </c>
       <c r="N4" t="n">
-        <v>889877250.4101579</v>
+        <v>874551910.723475</v>
       </c>
       <c r="O4" t="n">
-        <v>872313334.6155815</v>
+        <v>857102962.7175211</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01978528893972475</v>
+        <v>0.01759748583321603</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02018366316503891</v>
+        <v>0.01795573639201207</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9999</v>
+        <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>9967</v>
+        <v>10036</v>
       </c>
       <c r="D5" t="n">
-        <v>8833</v>
+        <v>8932</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8862245409852513</v>
+        <v>0.889996014348346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8833883388338833</v>
+        <v>0.8884026258205689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08817502547265936</v>
+        <v>0.09156419815045283</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07789278927892791</v>
+        <v>0.08134587406801719</v>
       </c>
       <c r="I5" t="n">
-        <v>48849354.23976017</v>
+        <v>46337616.22484795</v>
       </c>
       <c r="J5" t="n">
-        <v>18954056.23277476</v>
+        <v>16051063.21331039</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>18954056.23277476</v>
+        <v>16051063.21331039</v>
       </c>
       <c r="M5" t="n">
-        <v>67803410.47253492</v>
+        <v>62388679.43815833</v>
       </c>
       <c r="N5" t="n">
-        <v>936088635.9693686</v>
+        <v>913766845.3762347</v>
       </c>
       <c r="O5" t="n">
-        <v>918487413.684114</v>
+        <v>896280739.9132615</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02024814264852905</v>
+        <v>0.01756581921803205</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0206361632727756</v>
+        <v>0.01790852184870529</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10198</v>
+        <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10169</v>
+        <v>10233</v>
       </c>
       <c r="D6" t="n">
-        <v>9041</v>
+        <v>9093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8890746386075327</v>
+        <v>0.8885957197302844</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8865463816434594</v>
+        <v>0.8867758923346987</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08398739077535673</v>
+        <v>0.09047387773774557</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07445871739556777</v>
+        <v>0.08023005366386975</v>
       </c>
       <c r="I6" t="n">
-        <v>50884666.42367596</v>
+        <v>48397322.24827884</v>
       </c>
       <c r="J6" t="n">
-        <v>20382863.20657356</v>
+        <v>16709871.56519883</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20382863.20657356</v>
+        <v>16709871.56519883</v>
       </c>
       <c r="M6" t="n">
-        <v>71267529.63024952</v>
+        <v>65107193.81347767</v>
       </c>
       <c r="N6" t="n">
-        <v>982042596.0921406</v>
+        <v>954891245.1222031</v>
       </c>
       <c r="O6" t="n">
-        <v>964335049.8920094</v>
+        <v>937299419.2490215</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02075557953156354</v>
+        <v>0.01749924051619131</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02113670265210844</v>
+        <v>0.01782767728436984</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9453</v>
+        <v>9459</v>
       </c>
       <c r="D2" t="n">
-        <v>8370</v>
+        <v>8367</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8854331958108537</v>
+        <v>0.8845543926419284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8830976999366955</v>
+        <v>0.8827811774636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09588380880107245</v>
+        <v>0.09590404283678339</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08467477101339696</v>
+        <v>0.08466228385897516</v>
       </c>
       <c r="I2" t="n">
-        <v>40683573.30702042</v>
+        <v>40698145.31691629</v>
       </c>
       <c r="J2" t="n">
-        <v>14146954.60016621</v>
+        <v>14154240.60511414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14146954.60016621</v>
+        <v>14154240.60511414</v>
       </c>
       <c r="M2" t="n">
-        <v>54830527.90718663</v>
+        <v>54852385.92203042</v>
       </c>
       <c r="N2" t="n">
-        <v>800605047.7172</v>
+        <v>801445750.0172</v>
       </c>
       <c r="O2" t="n">
-        <v>782905240.7132001</v>
+        <v>783745943.0132</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01767032900992073</v>
+        <v>0.01766088422679935</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01806981721987046</v>
+        <v>0.01805973061971659</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9645</v>
+        <v>9637</v>
       </c>
       <c r="D3" t="n">
-        <v>8566</v>
+        <v>8559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8881285640228097</v>
+        <v>0.8881394624883262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8861990482102214</v>
+        <v>0.8854748603351955</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09426000800759959</v>
+        <v>0.09414955439058634</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0835331293806226</v>
+        <v>0.08336706352462532</v>
       </c>
       <c r="I3" t="n">
-        <v>42503835.53294694</v>
+        <v>42370594.43989093</v>
       </c>
       <c r="J3" t="n">
-        <v>14787168.70621267</v>
+        <v>14720548.15968467</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14787168.70621267</v>
+        <v>14720548.15968467</v>
       </c>
       <c r="M3" t="n">
-        <v>57291004.23915961</v>
+        <v>57091142.59957561</v>
       </c>
       <c r="N3" t="n">
-        <v>837916296.6930281</v>
+        <v>836286487.948328</v>
       </c>
       <c r="O3" t="n">
-        <v>820436120.6689579</v>
+        <v>818806311.924258</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01764754876420547</v>
+        <v>0.01760227908954833</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01802354666461501</v>
+        <v>0.0179780589686592</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9832</v>
+        <v>9838</v>
       </c>
       <c r="D4" t="n">
-        <v>8735</v>
+        <v>8733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8884255492270138</v>
+        <v>0.8876804228501728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.886082369649016</v>
+        <v>0.8858794887401096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09299641123507345</v>
+        <v>0.09295468746118477</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08240248043602824</v>
+        <v>0.08234665100411104</v>
       </c>
       <c r="I4" t="n">
-        <v>44349172.10058596</v>
+        <v>44324690.6429288</v>
       </c>
       <c r="J4" t="n">
-        <v>15389914.85936836</v>
+        <v>15377674.13053978</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15389914.85936836</v>
+        <v>15377674.13053978</v>
       </c>
       <c r="M4" t="n">
-        <v>59739086.95995432</v>
+        <v>59702364.77346857</v>
       </c>
       <c r="N4" t="n">
-        <v>874551910.723475</v>
+        <v>875462780.5151056</v>
       </c>
       <c r="O4" t="n">
-        <v>857102962.7175211</v>
+        <v>858013832.5091518</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01759748583321603</v>
+        <v>0.01756519462939572</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01795573639201207</v>
+        <v>0.01792240818026178</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10036</v>
+        <v>10033</v>
       </c>
       <c r="D5" t="n">
-        <v>8932</v>
+        <v>8917</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889996014348346</v>
+        <v>0.8887670686733778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8884026258205689</v>
+        <v>0.8869106823154963</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09156419815045283</v>
+        <v>0.0915457106288796</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08134587406801719</v>
+        <v>0.08119286867691659</v>
       </c>
       <c r="I5" t="n">
-        <v>46337616.22484795</v>
+        <v>46252928.80369589</v>
       </c>
       <c r="J5" t="n">
-        <v>16051063.21331039</v>
+        <v>16008719.50273435</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16051063.21331039</v>
+        <v>16008719.50273435</v>
       </c>
       <c r="M5" t="n">
-        <v>62388679.43815833</v>
+        <v>62261648.30643024</v>
       </c>
       <c r="N5" t="n">
-        <v>913766845.3762347</v>
+        <v>914819837.8515847</v>
       </c>
       <c r="O5" t="n">
-        <v>896280739.9132615</v>
+        <v>897333732.3886114</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01756581921803205</v>
+        <v>0.01749931389805685</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01790852184870529</v>
+        <v>0.01784031840653172</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10233</v>
+        <v>10220</v>
       </c>
       <c r="D6" t="n">
-        <v>9093</v>
+        <v>9059</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8885957197302844</v>
+        <v>0.886399217221135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8867758923346987</v>
+        <v>0.8834601131265848</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09047387773774557</v>
+        <v>0.09057818461513951</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08023005366386975</v>
+        <v>0.08002221322689183</v>
       </c>
       <c r="I6" t="n">
-        <v>48397322.24827884</v>
+        <v>48283872.6099349</v>
       </c>
       <c r="J6" t="n">
-        <v>16709871.56519883</v>
+        <v>16653146.74602686</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16709871.56519883</v>
+        <v>16653146.74602686</v>
       </c>
       <c r="M6" t="n">
-        <v>65107193.81347767</v>
+        <v>64937019.35596175</v>
       </c>
       <c r="N6" t="n">
-        <v>954891245.1222031</v>
+        <v>955659491.8934135</v>
       </c>
       <c r="O6" t="n">
-        <v>937299419.2490215</v>
+        <v>938067666.020232</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01749924051619131</v>
+        <v>0.01742581629470616</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01782767728436984</v>
+        <v>0.01775260714046154</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9459</v>
+        <v>9448</v>
       </c>
       <c r="D2" t="n">
-        <v>8367</v>
+        <v>7574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8845543926419284</v>
+        <v>0.8016511430990686</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8827811774636</v>
+        <v>0.7991137370753324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09590404283678339</v>
+        <v>0.1028346976498548</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08466228385897516</v>
+        <v>0.08217661953998734</v>
       </c>
       <c r="I2" t="n">
-        <v>40698145.31691629</v>
+        <v>39239770.164845</v>
       </c>
       <c r="J2" t="n">
-        <v>14154240.60511414</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14154240.60511414</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="M2" t="n">
-        <v>54852385.92203042</v>
+        <v>52659991.0066035</v>
       </c>
       <c r="N2" t="n">
-        <v>801445750.0172</v>
+        <v>801375021.0472001</v>
       </c>
       <c r="O2" t="n">
-        <v>783745943.0132</v>
+        <v>783675214.0432</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01766088422679935</v>
+        <v>0.01674649257749708</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01805973061971659</v>
+        <v>0.01712472284598593</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9637</v>
+        <v>9640</v>
       </c>
       <c r="D3" t="n">
-        <v>8559</v>
+        <v>7551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8881394624883262</v>
+        <v>0.783298755186722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8854748603351955</v>
+        <v>0.7811918063314711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09414955439058634</v>
+        <v>0.1028830618461131</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08336706352462532</v>
+        <v>0.08037140492447756</v>
       </c>
       <c r="I3" t="n">
-        <v>42370594.43989093</v>
+        <v>40538728.96122567</v>
       </c>
       <c r="J3" t="n">
-        <v>14720548.15968467</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14720548.15968467</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="M3" t="n">
-        <v>57091142.59957561</v>
+        <v>54338367.2286381</v>
       </c>
       <c r="N3" t="n">
-        <v>836286487.948328</v>
+        <v>836150914.9537281</v>
       </c>
       <c r="O3" t="n">
-        <v>818806311.924258</v>
+        <v>818670738.9296581</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01760227908954833</v>
+        <v>0.01650376507472469</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0179780589686592</v>
+        <v>0.01685615182173761</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9838</v>
+        <v>9834</v>
       </c>
       <c r="D4" t="n">
-        <v>8733</v>
+        <v>7543</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8876804228501728</v>
+        <v>0.7670327435428107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8858794887401096</v>
+        <v>0.7651653479407587</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09295468746118477</v>
+        <v>0.1029497547394936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08234665100411104</v>
+        <v>0.07877358490566039</v>
       </c>
       <c r="I4" t="n">
-        <v>44324690.6429288</v>
+        <v>42014448.3095379</v>
       </c>
       <c r="J4" t="n">
-        <v>15377674.13053978</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15377674.13053978</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="M4" t="n">
-        <v>59702364.77346857</v>
+        <v>56231874.80585443</v>
       </c>
       <c r="N4" t="n">
-        <v>875462780.5151056</v>
+        <v>875322312.16536</v>
       </c>
       <c r="O4" t="n">
-        <v>858013832.5091518</v>
+        <v>857873364.1594061</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01756519462939572</v>
+        <v>0.0162425043880644</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01792240818026178</v>
+        <v>0.01657287321217578</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10033</v>
+        <v>10026</v>
       </c>
       <c r="D5" t="n">
-        <v>8917</v>
+        <v>7534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8887670686733778</v>
+        <v>0.7514462397765809</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8869106823154963</v>
+        <v>0.7493534911478019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0915457106288796</v>
+        <v>0.1030222989116007</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08119286867691659</v>
+        <v>0.07720011935548041</v>
       </c>
       <c r="I5" t="n">
-        <v>46252928.80369589</v>
+        <v>43535019.83059579</v>
       </c>
       <c r="J5" t="n">
-        <v>16008719.50273435</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16008719.50273435</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="M5" t="n">
-        <v>62261648.30643024</v>
+        <v>58179504.58522647</v>
       </c>
       <c r="N5" t="n">
-        <v>914819837.8515847</v>
+        <v>914181328.8136762</v>
       </c>
       <c r="O5" t="n">
-        <v>897333732.3886114</v>
+        <v>896695223.350703</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01749931389805685</v>
+        <v>0.01601923414213095</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01784031840653172</v>
+        <v>0.01633161900863961</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10220</v>
+        <v>10237</v>
       </c>
       <c r="D6" t="n">
-        <v>9059</v>
+        <v>7523</v>
       </c>
       <c r="E6" t="n">
-        <v>0.886399217221135</v>
+        <v>0.7348832665820064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8834601131265848</v>
+        <v>0.7336649112541447</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09057818461513951</v>
+        <v>0.1030931809118703</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08002221322689183</v>
+        <v>0.07563584942461479</v>
       </c>
       <c r="I6" t="n">
-        <v>48283872.6099349</v>
+        <v>45146428.42506469</v>
       </c>
       <c r="J6" t="n">
-        <v>16653146.74602686</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16653146.74602686</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="M6" t="n">
-        <v>64937019.35596175</v>
+        <v>60225414.4092562</v>
       </c>
       <c r="N6" t="n">
-        <v>955659491.8934135</v>
+        <v>955175919.0364679</v>
       </c>
       <c r="O6" t="n">
-        <v>938067666.020232</v>
+        <v>937584093.1632864</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01742581629470616</v>
+        <v>0.01578660609388313</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01775260714046154</v>
+        <v>0.01608280909855989</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9448</v>
+        <v>9457</v>
       </c>
       <c r="D2" t="n">
-        <v>7574</v>
+        <v>8383</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8016511430990686</v>
+        <v>0.8864333298086073</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7991137370753324</v>
+        <v>0.8844692973201097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1028346976498548</v>
+        <v>0.09581466306536589</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08217661953998734</v>
+        <v>0.08474512771438723</v>
       </c>
       <c r="I2" t="n">
-        <v>39239770.164845</v>
+        <v>40726470.77878331</v>
       </c>
       <c r="J2" t="n">
-        <v>13420220.8417585</v>
+        <v>14166871.48193765</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13420220.8417585</v>
+        <v>14166871.48193765</v>
       </c>
       <c r="M2" t="n">
-        <v>52659991.0066035</v>
+        <v>54893342.26072096</v>
       </c>
       <c r="N2" t="n">
-        <v>801375021.0472001</v>
+        <v>800181092.3172001</v>
       </c>
       <c r="O2" t="n">
-        <v>783675214.0432</v>
+        <v>782481285.3132</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01674649257749708</v>
+        <v>0.0177045816477775</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01712472284598593</v>
+        <v>0.01810506110221811</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9640</v>
+        <v>9643</v>
       </c>
       <c r="D3" t="n">
-        <v>7551</v>
+        <v>8567</v>
       </c>
       <c r="E3" t="n">
-        <v>0.783298755186722</v>
+        <v>0.8884164679041792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7811918063314711</v>
+        <v>0.8863025036209394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1028830618461131</v>
+        <v>0.09424911249622747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08037140492447756</v>
+        <v>0.08353322436945795</v>
       </c>
       <c r="I3" t="n">
-        <v>40538728.96122567</v>
+        <v>42515722.80644882</v>
       </c>
       <c r="J3" t="n">
-        <v>13799638.26741243</v>
+        <v>14791534.53323031</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13799638.26741243</v>
+        <v>14791534.53323031</v>
       </c>
       <c r="M3" t="n">
-        <v>54338367.2286381</v>
+        <v>57307257.33967912</v>
       </c>
       <c r="N3" t="n">
-        <v>836150914.9537281</v>
+        <v>837382254.356528</v>
       </c>
       <c r="O3" t="n">
-        <v>818670738.9296581</v>
+        <v>819902078.332458</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01650376507472469</v>
+        <v>0.01766401718722426</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01685615182173761</v>
+        <v>0.01804061109750299</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9834</v>
+        <v>9835</v>
       </c>
       <c r="D4" t="n">
-        <v>7543</v>
+        <v>8715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7670327435428107</v>
+        <v>0.8861209964412812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7651653479407587</v>
+        <v>0.8840535605599513</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1029497547394936</v>
+        <v>0.09311208234732114</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07877358490566039</v>
+        <v>0.08231606793030065</v>
       </c>
       <c r="I4" t="n">
-        <v>42014448.3095379</v>
+        <v>44356356.26072727</v>
       </c>
       <c r="J4" t="n">
-        <v>14217426.49631654</v>
+        <v>15391881.79541372</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14217426.49631654</v>
+        <v>15391881.79541372</v>
       </c>
       <c r="M4" t="n">
-        <v>56231874.80585443</v>
+        <v>59748238.05614099</v>
       </c>
       <c r="N4" t="n">
-        <v>875322312.16536</v>
+        <v>875322254.7530119</v>
       </c>
       <c r="O4" t="n">
-        <v>857873364.1594061</v>
+        <v>857873306.7470582</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0162425043880644</v>
+        <v>0.01758424592981109</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01657287321217578</v>
+        <v>0.01794190549392158</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10026</v>
+        <v>10024</v>
       </c>
       <c r="D5" t="n">
-        <v>7534</v>
+        <v>8891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7514462397765809</v>
+        <v>0.8869712689545092</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7493534911478019</v>
+        <v>0.8843246469067038</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1030222989116007</v>
+        <v>0.09183918725606031</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07720011935548041</v>
+        <v>0.08121565684241421</v>
       </c>
       <c r="I5" t="n">
-        <v>43535019.83059579</v>
+        <v>46281693.98751035</v>
       </c>
       <c r="J5" t="n">
-        <v>14644484.75463068</v>
+        <v>16021428.19629553</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14644484.75463068</v>
+        <v>16021428.19629553</v>
       </c>
       <c r="M5" t="n">
-        <v>58179504.58522647</v>
+        <v>62303122.18380587</v>
       </c>
       <c r="N5" t="n">
-        <v>914181328.8136762</v>
+        <v>913377479.2056578</v>
       </c>
       <c r="O5" t="n">
-        <v>896695223.350703</v>
+        <v>895891373.7426846</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01601923414213095</v>
+        <v>0.01754086186822668</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01633161900863961</v>
+        <v>0.01788322632169596</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10237</v>
+        <v>10228</v>
       </c>
       <c r="D6" t="n">
-        <v>7523</v>
+        <v>9091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7348832665820064</v>
+        <v>0.8888345717637857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7336649112541447</v>
+        <v>0.8865808464989272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1030931809118703</v>
+        <v>0.0905776771966571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07563584942461479</v>
+        <v>0.08030443372291884</v>
       </c>
       <c r="I6" t="n">
-        <v>45146428.42506469</v>
+        <v>48451138.13060883</v>
       </c>
       <c r="J6" t="n">
-        <v>15078985.98419153</v>
+        <v>16735055.39106738</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15078985.98419153</v>
+        <v>16735055.39106738</v>
       </c>
       <c r="M6" t="n">
-        <v>60225414.4092562</v>
+        <v>65186193.5216762</v>
       </c>
       <c r="N6" t="n">
-        <v>955175919.0364679</v>
+        <v>954116855.7025089</v>
       </c>
       <c r="O6" t="n">
-        <v>937584093.1632864</v>
+        <v>936525029.8293273</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01578660609388313</v>
+        <v>0.01753983832383455</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01608280909855989</v>
+        <v>0.01786930926354118</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9457</v>
+        <v>9465</v>
       </c>
       <c r="D2" t="n">
-        <v>8383</v>
+        <v>8368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8864333298086073</v>
+        <v>0.8840993132593766</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8844692973201097</v>
+        <v>0.8828866849546317</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09581466306536589</v>
+        <v>0.0958304262959481</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08474512771438723</v>
+        <v>0.08460740739021877</v>
       </c>
       <c r="I2" t="n">
-        <v>40726470.77878331</v>
+        <v>40617149.71070025</v>
       </c>
       <c r="J2" t="n">
-        <v>14166871.48193765</v>
+        <v>14113742.80200613</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14166871.48193765</v>
+        <v>14113742.80200613</v>
       </c>
       <c r="M2" t="n">
-        <v>54893342.26072096</v>
+        <v>54730892.51270638</v>
       </c>
       <c r="N2" t="n">
-        <v>800181092.3172001</v>
+        <v>800741935.3172001</v>
       </c>
       <c r="O2" t="n">
-        <v>782481285.3132</v>
+        <v>783042128.3132001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0177045816477775</v>
+        <v>0.01762583196846711</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01810506110221811</v>
+        <v>0.01802424453510492</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9643</v>
+        <v>9642</v>
       </c>
       <c r="D3" t="n">
-        <v>8567</v>
+        <v>8557</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8884164679041792</v>
+        <v>0.8874714789462768</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8863025036209394</v>
+        <v>0.8852679495137595</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09424911249622747</v>
+        <v>0.09415192489269762</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08353322436945795</v>
+        <v>0.08334968149253193</v>
       </c>
       <c r="I3" t="n">
-        <v>42515722.80644882</v>
+        <v>42347526.09196078</v>
       </c>
       <c r="J3" t="n">
-        <v>14791534.53323031</v>
+        <v>14709013.98571959</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14791534.53323031</v>
+        <v>14709013.98571959</v>
       </c>
       <c r="M3" t="n">
-        <v>57307257.33967912</v>
+        <v>57056540.07768038</v>
       </c>
       <c r="N3" t="n">
-        <v>837382254.356528</v>
+        <v>836091164.5578281</v>
       </c>
       <c r="O3" t="n">
-        <v>819902078.332458</v>
+        <v>818610988.533758</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01766401718722426</v>
+        <v>0.01759259589054328</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01804061109750299</v>
+        <v>0.0179682586622315</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9835</v>
+        <v>9836</v>
       </c>
       <c r="D4" t="n">
-        <v>8715</v>
+        <v>8714</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8861209964412812</v>
+        <v>0.8859292395282635</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8840535605599513</v>
+        <v>0.8839521201054981</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09311208234732114</v>
+        <v>0.09305289739007716</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08231606793030065</v>
+        <v>0.08225430592991807</v>
       </c>
       <c r="I4" t="n">
-        <v>44356356.26072727</v>
+        <v>44259719.44997451</v>
       </c>
       <c r="J4" t="n">
-        <v>15391881.79541372</v>
+        <v>15345188.53406264</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15391881.79541372</v>
+        <v>15345188.53406264</v>
       </c>
       <c r="M4" t="n">
-        <v>59748238.05614099</v>
+        <v>59604907.98403715</v>
       </c>
       <c r="N4" t="n">
-        <v>875322254.7530119</v>
+        <v>874653871.4285319</v>
       </c>
       <c r="O4" t="n">
-        <v>857873306.7470582</v>
+        <v>857204923.4225781</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01758424592981109</v>
+        <v>0.01754429841944225</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01794190549392158</v>
+        <v>0.017901423702507</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10024</v>
+        <v>10027</v>
       </c>
       <c r="D5" t="n">
-        <v>8891</v>
+        <v>8908</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8869712689545092</v>
+        <v>0.8884013164455968</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8843246469067038</v>
+        <v>0.8860155162124528</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09183918725606031</v>
+        <v>0.09171498176794257</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08121565684241421</v>
+        <v>0.08126089691553934</v>
       </c>
       <c r="I5" t="n">
-        <v>46281693.98751035</v>
+        <v>46251536.29016398</v>
       </c>
       <c r="J5" t="n">
-        <v>16021428.19629553</v>
+        <v>16008023.2459684</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16021428.19629553</v>
+        <v>16008023.2459684</v>
       </c>
       <c r="M5" t="n">
-        <v>62303122.18380587</v>
+        <v>62259559.53613237</v>
       </c>
       <c r="N5" t="n">
-        <v>913377479.2056578</v>
+        <v>913201104.5186434</v>
       </c>
       <c r="O5" t="n">
-        <v>895891373.7426846</v>
+        <v>895714999.0556703</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01754086186822668</v>
+        <v>0.017529570613481</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01788322632169596</v>
+        <v>0.017871782054387</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10228</v>
+        <v>10222</v>
       </c>
       <c r="D6" t="n">
-        <v>9091</v>
+        <v>9062</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8888345717637857</v>
+        <v>0.8865192721580903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8865808464989272</v>
+        <v>0.8837526818802418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0905776771966571</v>
+        <v>0.09064143435825292</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08030443372291884</v>
+        <v>0.08010461070357792</v>
       </c>
       <c r="I6" t="n">
-        <v>48451138.13060883</v>
+        <v>48302938.50549269</v>
       </c>
       <c r="J6" t="n">
-        <v>16735055.39106738</v>
+        <v>16662679.69380575</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16735055.39106738</v>
+        <v>16662679.69380575</v>
       </c>
       <c r="M6" t="n">
-        <v>65186193.5216762</v>
+        <v>64965618.19929844</v>
       </c>
       <c r="N6" t="n">
-        <v>954116855.7025089</v>
+        <v>954323256.6988841</v>
       </c>
       <c r="O6" t="n">
-        <v>936525029.8293273</v>
+        <v>936731430.8257025</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01753983832383455</v>
+        <v>0.01746020499536385</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01786930926354118</v>
+        <v>0.01778810782415838</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -525,52 +525,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9478</v>
+        <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>9465</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>8368</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8840993132593766</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8828866849546317</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0958304262959481</v>
+        <v>0.09853558668981278</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08460740739021877</v>
+        <v>0.08307902407180294</v>
       </c>
       <c r="I2" t="n">
-        <v>40617149.71070025</v>
+        <v>453398.1905958019</v>
       </c>
       <c r="J2" t="n">
-        <v>14113742.80200613</v>
+        <v>164085.0954989009</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14113742.80200613</v>
+        <v>164085.0954989009</v>
       </c>
       <c r="M2" t="n">
-        <v>54730892.51270638</v>
+        <v>617483.2860947028</v>
       </c>
       <c r="N2" t="n">
-        <v>800741935.3172001</v>
+        <v>10034971.8888</v>
       </c>
       <c r="O2" t="n">
-        <v>783042128.3132001</v>
+        <v>9627230.958700001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01762583196846711</v>
+        <v>0.01635132587486724</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01802424453510492</v>
+        <v>0.01704385157090465</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9666</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>9642</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>8557</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8874714789462768</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8852679495137595</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09415192489269762</v>
+        <v>0.09946524789627358</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08334968149253193</v>
+        <v>0.08208297156488596</v>
       </c>
       <c r="I3" t="n">
-        <v>42347526.09196078</v>
+        <v>475130.6665414795</v>
       </c>
       <c r="J3" t="n">
-        <v>14709013.98571959</v>
+        <v>172352.9134777698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14709013.98571959</v>
+        <v>172352.9134777698</v>
       </c>
       <c r="M3" t="n">
-        <v>57056540.07768038</v>
+        <v>647483.5800192493</v>
       </c>
       <c r="N3" t="n">
-        <v>836091164.5578281</v>
+        <v>10633646.086764</v>
       </c>
       <c r="O3" t="n">
-        <v>818610988.533758</v>
+        <v>10226272.928761</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01759259589054328</v>
+        <v>0.01620826121835127</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0179682586622315</v>
+        <v>0.01685393248140618</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9858</v>
+        <v>104</v>
       </c>
       <c r="C4" t="n">
-        <v>9836</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>8714</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8859292395282635</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8839521201054981</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09305289739007716</v>
+        <v>0.09774377642832541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08225430592991807</v>
+        <v>0.08176642835831067</v>
       </c>
       <c r="I4" t="n">
-        <v>44259719.44997451</v>
+        <v>502966.1150419703</v>
       </c>
       <c r="J4" t="n">
-        <v>15345188.53406264</v>
+        <v>179184.265134226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15345188.53406264</v>
+        <v>179184.265134226</v>
       </c>
       <c r="M4" t="n">
-        <v>59604907.98403715</v>
+        <v>682150.3801761963</v>
       </c>
       <c r="N4" t="n">
-        <v>874653871.4285319</v>
+        <v>10970666.81506692</v>
       </c>
       <c r="O4" t="n">
-        <v>857204923.4225781</v>
+        <v>10562322.46232383</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01754429841944225</v>
+        <v>0.01633303318337382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.017901423702507</v>
+        <v>0.01696447592595118</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10054</v>
+        <v>105</v>
       </c>
       <c r="C5" t="n">
-        <v>10027</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>8908</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8884013164455968</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8860155162124528</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09171498176794257</v>
+        <v>0.09774030428156209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08126089691553934</v>
+        <v>0.08098482354758002</v>
       </c>
       <c r="I5" t="n">
-        <v>46251536.29016398</v>
+        <v>516886.2289629109</v>
       </c>
       <c r="J5" t="n">
-        <v>16008023.2459684</v>
+        <v>183570.3583230936</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16008023.2459684</v>
+        <v>183570.3583230936</v>
       </c>
       <c r="M5" t="n">
-        <v>62259559.53613237</v>
+        <v>700456.5872860046</v>
       </c>
       <c r="N5" t="n">
-        <v>913201104.5186434</v>
+        <v>11269370.82291893</v>
       </c>
       <c r="O5" t="n">
-        <v>895714999.0556703</v>
+        <v>10858676.13959355</v>
       </c>
       <c r="P5" t="n">
-        <v>0.017529570613481</v>
+        <v>0.01628931740801003</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.017871782054387</v>
+        <v>0.01690540872231639</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10254</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
-        <v>10222</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>9062</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8865192721580903</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8837526818802418</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09064143435825292</v>
+        <v>0.09459020222215261</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08010461070357792</v>
+        <v>0.08031243584899751</v>
       </c>
       <c r="I6" t="n">
-        <v>48302938.50549269</v>
+        <v>533100.1538977289</v>
       </c>
       <c r="J6" t="n">
-        <v>16662679.69380575</v>
+        <v>188616.1381057517</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16662679.69380575</v>
+        <v>188616.1381057517</v>
       </c>
       <c r="M6" t="n">
-        <v>64965618.19929844</v>
+        <v>721716.2920034805</v>
       </c>
       <c r="N6" t="n">
-        <v>954323256.6988841</v>
+        <v>11647629.9738065</v>
       </c>
       <c r="O6" t="n">
-        <v>936731430.8257025</v>
+        <v>11233164.44998135</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01746020499536385</v>
+        <v>0.01619352078748352</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01778810782415838</v>
+        <v>0.0167910065721565</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -540,37 +540,37 @@
         <v>0.8431372549019608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09853558668981278</v>
+        <v>0.0981586584325309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08307902407180294</v>
+        <v>0.08276122181566332</v>
       </c>
       <c r="I2" t="n">
-        <v>453398.1905958019</v>
+        <v>455125.3006419801</v>
       </c>
       <c r="J2" t="n">
-        <v>164085.0954989009</v>
+        <v>164948.65052199</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>164085.0954989009</v>
+        <v>164948.65052199</v>
       </c>
       <c r="M2" t="n">
-        <v>617483.2860947028</v>
+        <v>620073.9511639702</v>
       </c>
       <c r="N2" t="n">
-        <v>10034971.8888</v>
+        <v>10164152.6588</v>
       </c>
       <c r="O2" t="n">
-        <v>9627230.958700001</v>
+        <v>9756411.728700001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01635132587486724</v>
+        <v>0.01622847039582581</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01704385157090465</v>
+        <v>0.01690669224595841</v>
       </c>
     </row>
     <row r="3">
@@ -584,46 +584,46 @@
         <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8252427184466019</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8252427184466019</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09946524789627358</v>
+        <v>0.09729244173422845</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08208297156488596</v>
+        <v>0.08217905272696967</v>
       </c>
       <c r="I3" t="n">
-        <v>475130.6665414795</v>
+        <v>469976.0611579026</v>
       </c>
       <c r="J3" t="n">
-        <v>172352.9134777698</v>
+        <v>169775.6107859813</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>172352.9134777698</v>
+        <v>169775.6107859813</v>
       </c>
       <c r="M3" t="n">
-        <v>647483.5800192493</v>
+        <v>639751.6719438838</v>
       </c>
       <c r="N3" t="n">
-        <v>10633646.086764</v>
+        <v>10441590.754864</v>
       </c>
       <c r="O3" t="n">
-        <v>10226272.928761</v>
+        <v>10034217.596861</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01620826121835127</v>
+        <v>0.01625955419741909</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01685393248140618</v>
+        <v>0.01691966604741481</v>
       </c>
     </row>
     <row r="4">
@@ -646,37 +646,37 @@
         <v>0.8365384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09774377642832541</v>
+        <v>0.09766085713146683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08176642835831067</v>
+        <v>0.08169706317728474</v>
       </c>
       <c r="I4" t="n">
-        <v>502966.1150419703</v>
+        <v>500624.5054121671</v>
       </c>
       <c r="J4" t="n">
-        <v>179184.265134226</v>
+        <v>178013.4603193245</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>179184.265134226</v>
+        <v>178013.4603193245</v>
       </c>
       <c r="M4" t="n">
-        <v>682150.3801761963</v>
+        <v>678637.9657314916</v>
       </c>
       <c r="N4" t="n">
-        <v>10970666.81506692</v>
+        <v>10968786.42890992</v>
       </c>
       <c r="O4" t="n">
-        <v>10562322.46232383</v>
+        <v>10560442.07616683</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01633303318337382</v>
+        <v>0.01622909348021789</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01696447592595118</v>
+        <v>0.01685662958381935</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>105</v>
       </c>
       <c r="C5" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
         <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="F5" t="n">
         <v>0.8285714285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09774030428156209</v>
+        <v>0.09805477375316646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08098482354758002</v>
+        <v>0.08124538396690935</v>
       </c>
       <c r="I5" t="n">
-        <v>516886.2289629109</v>
+        <v>515808.63208648</v>
       </c>
       <c r="J5" t="n">
-        <v>183570.3583230936</v>
+        <v>183031.5598848782</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>183570.3583230936</v>
+        <v>183031.5598848782</v>
       </c>
       <c r="M5" t="n">
-        <v>700456.5872860046</v>
+        <v>698840.1919713583</v>
       </c>
       <c r="N5" t="n">
-        <v>11269370.82291893</v>
+        <v>11245515.25037722</v>
       </c>
       <c r="O5" t="n">
-        <v>10858676.13959355</v>
+        <v>10834820.56705184</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01628931740801003</v>
+        <v>0.01627596031037693</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01690540872231639</v>
+        <v>0.0168929018023121</v>
       </c>
     </row>
     <row r="6">
@@ -752,37 +752,37 @@
         <v>0.8490566037735849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09459020222215261</v>
+        <v>0.09525740397532713</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08031243584899751</v>
+        <v>0.08087892790357966</v>
       </c>
       <c r="I6" t="n">
-        <v>533100.1538977289</v>
+        <v>535448.0544955599</v>
       </c>
       <c r="J6" t="n">
-        <v>188616.1381057517</v>
+        <v>189790.0884046672</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>188616.1381057517</v>
+        <v>189790.0884046672</v>
       </c>
       <c r="M6" t="n">
-        <v>721716.2920034805</v>
+        <v>725238.1429002271</v>
       </c>
       <c r="N6" t="n">
-        <v>11647629.9738065</v>
+        <v>11615833.42568854</v>
       </c>
       <c r="O6" t="n">
-        <v>11233164.44998135</v>
+        <v>11201367.90186339</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01619352078748352</v>
+        <v>0.01633891271072676</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0167910065721565</v>
+        <v>0.01694347423166905</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -531,46 +531,46 @@
         <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0981586584325309</v>
+        <v>0.09737246067906356</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08276122181566332</v>
+        <v>0.08400761313487837</v>
       </c>
       <c r="I2" t="n">
-        <v>455125.3006419801</v>
+        <v>462691.8401053585</v>
       </c>
       <c r="J2" t="n">
-        <v>164948.65052199</v>
+        <v>168731.9202536792</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>164948.65052199</v>
+        <v>168731.9202536792</v>
       </c>
       <c r="M2" t="n">
-        <v>620073.9511639702</v>
+        <v>631423.7603590377</v>
       </c>
       <c r="N2" t="n">
-        <v>10164152.6588</v>
+        <v>10131360.5088</v>
       </c>
       <c r="O2" t="n">
-        <v>9756411.728700001</v>
+        <v>9723619.5787</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01622847039582581</v>
+        <v>0.01665441873350774</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01690669224595841</v>
+        <v>0.01735278914276877</v>
       </c>
     </row>
     <row r="3">
@@ -584,46 +584,46 @@
         <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09729244173422845</v>
+        <v>0.09684574533725648</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08217905272696967</v>
+        <v>0.08274199601629682</v>
       </c>
       <c r="I3" t="n">
-        <v>469976.0611579026</v>
+        <v>477113.6797688863</v>
       </c>
       <c r="J3" t="n">
-        <v>169775.6107859813</v>
+        <v>173344.4200914731</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>169775.6107859813</v>
+        <v>173344.4200914731</v>
       </c>
       <c r="M3" t="n">
-        <v>639751.6719438838</v>
+        <v>650458.0998603592</v>
       </c>
       <c r="N3" t="n">
-        <v>10441590.754864</v>
+        <v>10494911.028964</v>
       </c>
       <c r="O3" t="n">
-        <v>10034217.596861</v>
+        <v>10087537.870961</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01625955419741909</v>
+        <v>0.0165169975822639</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01691966604741481</v>
+        <v>0.01718401678475774</v>
       </c>
     </row>
     <row r="4">
@@ -637,46 +637,46 @@
         <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09766085713146683</v>
+        <v>0.0971597766805547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08169706317728474</v>
+        <v>0.08221211872970012</v>
       </c>
       <c r="I4" t="n">
-        <v>500624.5054121671</v>
+        <v>504436.7308120827</v>
       </c>
       <c r="J4" t="n">
-        <v>178013.4603193245</v>
+        <v>179919.5730192822</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>178013.4603193245</v>
+        <v>179919.5730192822</v>
       </c>
       <c r="M4" t="n">
-        <v>678637.9657314916</v>
+        <v>684356.3038313651</v>
       </c>
       <c r="N4" t="n">
-        <v>10968786.42890992</v>
+        <v>10907997.05983292</v>
       </c>
       <c r="O4" t="n">
-        <v>10560442.07616683</v>
+        <v>10499652.70708983</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01622909348021789</v>
+        <v>0.01649428140036903</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01685662958381935</v>
+        <v>0.01713576420463818</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09805477375316646</v>
+        <v>0.0964615420761171</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08124538396690935</v>
+        <v>0.08176264042642307</v>
       </c>
       <c r="I5" t="n">
-        <v>515808.63208648</v>
+        <v>524764.3891885336</v>
       </c>
       <c r="J5" t="n">
-        <v>183031.5598848782</v>
+        <v>187509.438435905</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>183031.5598848782</v>
+        <v>187509.438435905</v>
       </c>
       <c r="M5" t="n">
-        <v>698840.1919713583</v>
+        <v>712273.8276244387</v>
       </c>
       <c r="N5" t="n">
-        <v>11245515.25037722</v>
+        <v>11375845.10502791</v>
       </c>
       <c r="O5" t="n">
-        <v>10834820.56705184</v>
+        <v>10965150.42170252</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01627596031037693</v>
+        <v>0.01648312162346773</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0168929018023121</v>
+        <v>0.01710048938907224</v>
       </c>
     </row>
     <row r="6">
@@ -743,46 +743,46 @@
         <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09525740397532713</v>
+        <v>0.0955045359716872</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08087892790357966</v>
+        <v>0.08198974314550507</v>
       </c>
       <c r="I6" t="n">
-        <v>535448.0544955599</v>
+        <v>548908.0304184185</v>
       </c>
       <c r="J6" t="n">
-        <v>189790.0884046672</v>
+        <v>196520.0763660966</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>189790.0884046672</v>
+        <v>196520.0763660966</v>
       </c>
       <c r="M6" t="n">
-        <v>725238.1429002271</v>
+        <v>745428.1067845151</v>
       </c>
       <c r="N6" t="n">
-        <v>11615833.42568854</v>
+        <v>11767757.80777875</v>
       </c>
       <c r="O6" t="n">
-        <v>11201367.90186339</v>
+        <v>11353292.2839536</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01633891271072676</v>
+        <v>0.01669987431558053</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01694347423166905</v>
+        <v>0.0173095232159091</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -531,46 +531,46 @@
         <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09737246067906356</v>
+        <v>0.1020570907636317</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08400761313487837</v>
+        <v>0.08204589649625291</v>
       </c>
       <c r="I2" t="n">
-        <v>462691.8401053585</v>
+        <v>452494.6720494052</v>
       </c>
       <c r="J2" t="n">
-        <v>168731.9202536792</v>
+        <v>163633.3362257026</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>168731.9202536792</v>
+        <v>163633.3362257026</v>
       </c>
       <c r="M2" t="n">
-        <v>631423.7603590377</v>
+        <v>616128.0082751078</v>
       </c>
       <c r="N2" t="n">
-        <v>10131360.5088</v>
+        <v>10292112.5688</v>
       </c>
       <c r="O2" t="n">
-        <v>9723619.5787</v>
+        <v>9884371.638699999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01665441873350774</v>
+        <v>0.01589890657839757</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01735278914276877</v>
+        <v>0.01655475352474948</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09684574533725648</v>
+        <v>0.09750327982997359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08274199601629682</v>
+        <v>0.08235713927386119</v>
       </c>
       <c r="I3" t="n">
-        <v>477113.6797688863</v>
+        <v>473488.5336105639</v>
       </c>
       <c r="J3" t="n">
-        <v>173344.4200914731</v>
+        <v>171531.8470123119</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>173344.4200914731</v>
+        <v>171531.8470123119</v>
       </c>
       <c r="M3" t="n">
-        <v>650458.0998603592</v>
+        <v>645020.3806228759</v>
       </c>
       <c r="N3" t="n">
-        <v>10494911.028964</v>
+        <v>10436953.712764</v>
       </c>
       <c r="O3" t="n">
-        <v>10087537.870961</v>
+        <v>10029580.554761</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0165169975822639</v>
+        <v>0.01643504912765254</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01718401678475774</v>
+        <v>0.01710259427856995</v>
       </c>
     </row>
     <row r="4">
@@ -637,46 +637,46 @@
         <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0971597766805547</v>
+        <v>0.09749531305237304</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08221211872970012</v>
+        <v>0.08155857918804287</v>
       </c>
       <c r="I4" t="n">
-        <v>504436.7308120827</v>
+        <v>497757.4148347</v>
       </c>
       <c r="J4" t="n">
-        <v>179919.5730192822</v>
+        <v>176579.9150305909</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>179919.5730192822</v>
+        <v>176579.9150305909</v>
       </c>
       <c r="M4" t="n">
-        <v>684356.3038313651</v>
+        <v>674337.3298652909</v>
       </c>
       <c r="N4" t="n">
-        <v>10907997.05983292</v>
+        <v>10911311.62264692</v>
       </c>
       <c r="O4" t="n">
-        <v>10499652.70708983</v>
+        <v>10502967.26990383</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01649428140036903</v>
+        <v>0.01618319787183892</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01713576420463818</v>
+        <v>0.01681238363339275</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0964615420761171</v>
+        <v>0.09816608625862366</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08176264042642307</v>
+        <v>0.08040269922134892</v>
       </c>
       <c r="I5" t="n">
-        <v>524764.3891885336</v>
+        <v>513130.3226945847</v>
       </c>
       <c r="J5" t="n">
-        <v>187509.438435905</v>
+        <v>181692.4051889305</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>187509.438435905</v>
+        <v>181692.4051889305</v>
       </c>
       <c r="M5" t="n">
-        <v>712273.8276244387</v>
+        <v>694822.7278835152</v>
       </c>
       <c r="N5" t="n">
-        <v>11375845.10502791</v>
+        <v>11330655.55062633</v>
       </c>
       <c r="O5" t="n">
-        <v>10965150.42170252</v>
+        <v>10919960.86730095</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01648312162346773</v>
+        <v>0.01603547159095195</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01710048938907224</v>
+        <v>0.01663855826928791</v>
       </c>
     </row>
     <row r="6">
@@ -743,46 +743,46 @@
         <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0955045359716872</v>
+        <v>0.09702974602399582</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08198974314550507</v>
+        <v>0.08055299669916634</v>
       </c>
       <c r="I6" t="n">
-        <v>548908.0304184185</v>
+        <v>535915.2845663553</v>
       </c>
       <c r="J6" t="n">
-        <v>196520.0763660966</v>
+        <v>190023.7034400649</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>196520.0763660966</v>
+        <v>190023.7034400649</v>
       </c>
       <c r="M6" t="n">
-        <v>745428.1067845151</v>
+        <v>725938.9880064201</v>
       </c>
       <c r="N6" t="n">
-        <v>11767757.80777875</v>
+        <v>11688284.31584512</v>
       </c>
       <c r="O6" t="n">
-        <v>11353292.2839536</v>
+        <v>11273818.79201997</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01669987431558053</v>
+        <v>0.01625762158971963</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0173095232159091</v>
+        <v>0.01685530936283726</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1020570907636317</v>
+        <v>0.09943492116856165</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08204589649625291</v>
+        <v>0.08286243430713471</v>
       </c>
       <c r="I2" t="n">
-        <v>452494.6720494052</v>
+        <v>453942.9050599152</v>
       </c>
       <c r="J2" t="n">
-        <v>163633.3362257026</v>
+        <v>164357.4527309576</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>163633.3362257026</v>
+        <v>164357.4527309576</v>
       </c>
       <c r="M2" t="n">
-        <v>616128.0082751078</v>
+        <v>618300.3577908728</v>
       </c>
       <c r="N2" t="n">
-        <v>10292112.5688</v>
+        <v>10015935.0988</v>
       </c>
       <c r="O2" t="n">
-        <v>9884371.638699999</v>
+        <v>9608194.168699998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01589890657839757</v>
+        <v>0.01640959641907515</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01655475352474948</v>
+        <v>0.01710596703659199</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="F3" t="n">
         <v>0.8446601941747572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09750327982997359</v>
+        <v>0.09776072146367178</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08235713927386119</v>
+        <v>0.08257458997416935</v>
       </c>
       <c r="I3" t="n">
-        <v>473488.5336105639</v>
+        <v>475461.5553898957</v>
       </c>
       <c r="J3" t="n">
-        <v>171531.8470123119</v>
+        <v>172518.3579019778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>171531.8470123119</v>
+        <v>172518.3579019778</v>
       </c>
       <c r="M3" t="n">
-        <v>645020.3806228759</v>
+        <v>647979.9132918735</v>
       </c>
       <c r="N3" t="n">
-        <v>10436953.712764</v>
+        <v>10570506.655464</v>
       </c>
       <c r="O3" t="n">
-        <v>10029580.554761</v>
+        <v>10163133.497461</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01643504912765254</v>
+        <v>0.01632072742821664</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01710259427856995</v>
+        <v>0.01697491801569636</v>
       </c>
     </row>
     <row r="4">
@@ -637,46 +637,46 @@
         <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09749531305237304</v>
+        <v>0.09666630872252636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08155857918804287</v>
+        <v>0.08179456891906077</v>
       </c>
       <c r="I4" t="n">
-        <v>497757.4148347</v>
+        <v>499772.3434468232</v>
       </c>
       <c r="J4" t="n">
-        <v>176579.9150305909</v>
+        <v>177587.3793366524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>176579.9150305909</v>
+        <v>177587.3793366524</v>
       </c>
       <c r="M4" t="n">
-        <v>674337.3298652909</v>
+        <v>677359.7227834756</v>
       </c>
       <c r="N4" t="n">
-        <v>10911311.62264692</v>
+        <v>10935308.90212792</v>
       </c>
       <c r="O4" t="n">
-        <v>10502967.26990383</v>
+        <v>10526964.54938483</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01618319787183892</v>
+        <v>0.01623981370129338</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01681238363339275</v>
+        <v>0.01686976131662097</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09816608625862366</v>
+        <v>0.09525529745848933</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08040269922134892</v>
+        <v>0.0816473978215623</v>
       </c>
       <c r="I5" t="n">
-        <v>513130.3226945847</v>
+        <v>519331.4335515244</v>
       </c>
       <c r="J5" t="n">
-        <v>181692.4051889305</v>
+        <v>184792.9606174003</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181692.4051889305</v>
+        <v>184792.9606174003</v>
       </c>
       <c r="M5" t="n">
-        <v>694822.7278835152</v>
+        <v>704124.3941689247</v>
       </c>
       <c r="N5" t="n">
-        <v>11330655.55062633</v>
+        <v>11301297.20929176</v>
       </c>
       <c r="O5" t="n">
-        <v>10919960.86730095</v>
+        <v>10890602.52596637</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01603547159095195</v>
+        <v>0.0163514822409472</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01663855826928791</v>
+        <v>0.01696811174375338</v>
       </c>
     </row>
     <row r="6">
@@ -752,37 +752,37 @@
         <v>0.8301886792452831</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09702974602399582</v>
+        <v>0.0962254754163797</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08055299669916634</v>
+        <v>0.0798853003456737</v>
       </c>
       <c r="I6" t="n">
-        <v>535915.2845663553</v>
+        <v>530251.3219092456</v>
       </c>
       <c r="J6" t="n">
-        <v>190023.7034400649</v>
+        <v>187191.7221115101</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>190023.7034400649</v>
+        <v>187191.7221115101</v>
       </c>
       <c r="M6" t="n">
-        <v>725938.9880064201</v>
+        <v>717443.0440207556</v>
       </c>
       <c r="N6" t="n">
-        <v>11688284.31584512</v>
+        <v>11764042.88127051</v>
       </c>
       <c r="O6" t="n">
-        <v>11273818.79201997</v>
+        <v>11349577.35744537</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01625762158971963</v>
+        <v>0.01591219311258524</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01685530936283726</v>
+        <v>0.01649327690503925</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09943492116856165</v>
+        <v>0.09877977698439171</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08286243430713471</v>
+        <v>0.0832849100064479</v>
       </c>
       <c r="I2" t="n">
-        <v>453942.9050599152</v>
+        <v>461132.027355649</v>
       </c>
       <c r="J2" t="n">
-        <v>164357.4527309576</v>
+        <v>167952.0138788245</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>164357.4527309576</v>
+        <v>167952.0138788245</v>
       </c>
       <c r="M2" t="n">
-        <v>618300.3577908728</v>
+        <v>629084.0412344737</v>
       </c>
       <c r="N2" t="n">
-        <v>10015935.0988</v>
+        <v>10240780.2488</v>
       </c>
       <c r="O2" t="n">
-        <v>9608194.168699998</v>
+        <v>9833039.318699999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01640959641907515</v>
+        <v>0.01640031421419328</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01710596703659199</v>
+        <v>0.01708037651791155</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09776072146367178</v>
+        <v>0.09496116222475419</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08257458997416935</v>
+        <v>0.08152326190993048</v>
       </c>
       <c r="I3" t="n">
-        <v>475461.5553898957</v>
+        <v>486228.6741479071</v>
       </c>
       <c r="J3" t="n">
-        <v>172518.3579019778</v>
+        <v>177901.9172809835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>172518.3579019778</v>
+        <v>177901.9172809835</v>
       </c>
       <c r="M3" t="n">
-        <v>647979.9132918735</v>
+        <v>664130.5914288907</v>
       </c>
       <c r="N3" t="n">
-        <v>10570506.655464</v>
+        <v>10797211.559364</v>
       </c>
       <c r="O3" t="n">
-        <v>10163133.497461</v>
+        <v>10389838.401361</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01632072742821664</v>
+        <v>0.01647665383815658</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01697491801569636</v>
+        <v>0.01712268376163383</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09666630872252636</v>
+        <v>0.09300393342188501</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08179456891906077</v>
+        <v>0.07935197989206702</v>
       </c>
       <c r="I4" t="n">
-        <v>499772.3434468232</v>
+        <v>512838.5062540149</v>
       </c>
       <c r="J4" t="n">
-        <v>177587.3793366524</v>
+        <v>184120.4607402484</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>177587.3793366524</v>
+        <v>184120.4607402484</v>
       </c>
       <c r="M4" t="n">
-        <v>677359.7227834756</v>
+        <v>696958.9669942633</v>
       </c>
       <c r="N4" t="n">
-        <v>10935308.90212792</v>
+        <v>11361855.35814492</v>
       </c>
       <c r="O4" t="n">
-        <v>10526964.54938483</v>
+        <v>10953511.00540183</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01623981370129338</v>
+        <v>0.01620514035221006</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01686976131662097</v>
+        <v>0.01680926423038673</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8454545454545455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09525529745848933</v>
+        <v>0.09289780249835385</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0816473978215623</v>
+        <v>0.0785408693849719</v>
       </c>
       <c r="I5" t="n">
-        <v>519331.4335515244</v>
+        <v>523961.5408676272</v>
       </c>
       <c r="J5" t="n">
-        <v>184792.9606174003</v>
+        <v>187108.0142754518</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>184792.9606174003</v>
+        <v>187108.0142754518</v>
       </c>
       <c r="M5" t="n">
-        <v>704124.3941689247</v>
+        <v>711069.5551430788</v>
       </c>
       <c r="N5" t="n">
-        <v>11301297.20929176</v>
+        <v>11517660.85818927</v>
       </c>
       <c r="O5" t="n">
-        <v>10890602.52596637</v>
+        <v>11106966.17486389</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0163514822409472</v>
+        <v>0.01624531374722798</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01696811174375338</v>
+        <v>0.01684600559051803</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C6" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0962254754163797</v>
+        <v>0.09190722738373355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0798853003456737</v>
+        <v>0.07795702322727401</v>
       </c>
       <c r="I6" t="n">
-        <v>530251.3219092456</v>
+        <v>548708.848341326</v>
       </c>
       <c r="J6" t="n">
-        <v>187191.7221115101</v>
+        <v>196420.4853275503</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>187191.7221115101</v>
+        <v>196420.4853275503</v>
       </c>
       <c r="M6" t="n">
-        <v>717443.0440207556</v>
+        <v>745129.3336688762</v>
       </c>
       <c r="N6" t="n">
-        <v>11764042.88127051</v>
+        <v>12112094.92793495</v>
       </c>
       <c r="O6" t="n">
-        <v>11349577.35744537</v>
+        <v>11697629.4041098</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01591219311258524</v>
+        <v>0.01621688787086141</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01649327690503925</v>
+        <v>0.01679147787487101</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_Baseline.xlsx
+++ b/projection_results_Baseline.xlsx
@@ -525,52 +525,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>9456</v>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>8369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8850465313028765</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8829921924456636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09877977698439171</v>
+        <v>0.09597596898787557</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0832849100064479</v>
+        <v>0.08474603127870128</v>
       </c>
       <c r="I2" t="n">
-        <v>461132.027355649</v>
+        <v>41011357.62888187</v>
       </c>
       <c r="J2" t="n">
-        <v>167952.0138788245</v>
+        <v>14306014.57377693</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>167952.0138788245</v>
+        <v>14306014.57377693</v>
       </c>
       <c r="M2" t="n">
-        <v>629084.0412344737</v>
+        <v>55317372.20265881</v>
       </c>
       <c r="N2" t="n">
-        <v>10240780.2488</v>
+        <v>812856555.5672001</v>
       </c>
       <c r="O2" t="n">
-        <v>9833039.318699999</v>
+        <v>793677941.7132001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01640031421419328</v>
+        <v>0.01759967915100887</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01708037651791155</v>
+        <v>0.01802496179104659</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>9762</v>
       </c>
       <c r="C3" t="n">
-        <v>106</v>
+        <v>9743</v>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>8661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8889459098840193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8872157344806392</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09496116222475419</v>
+        <v>0.09352092230585833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08152326190993048</v>
+        <v>0.08297323377289889</v>
       </c>
       <c r="I3" t="n">
-        <v>486228.6741479071</v>
+        <v>43255456.65684056</v>
       </c>
       <c r="J3" t="n">
-        <v>177901.9172809835</v>
+        <v>15158002.11521988</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>177901.9172809835</v>
+        <v>15158002.11521988</v>
       </c>
       <c r="M3" t="n">
-        <v>664130.5914288907</v>
+        <v>58413458.77206045</v>
       </c>
       <c r="N3" t="n">
-        <v>10797211.559364</v>
+        <v>868756639.5402131</v>
       </c>
       <c r="O3" t="n">
-        <v>10389838.401361</v>
+        <v>848873415.5163431</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01647665383815658</v>
+        <v>0.01744792664058626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01712268376163383</v>
+        <v>0.01785661070090143</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
+        <v>10048</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>10026</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>8905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.8881907041691602</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.8862460191082803</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09300393342188501</v>
+        <v>0.09177983476932886</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07935197989206702</v>
+        <v>0.08133951319873342</v>
       </c>
       <c r="I4" t="n">
-        <v>512838.5062540149</v>
+        <v>45461625.99696768</v>
       </c>
       <c r="J4" t="n">
-        <v>184120.4607402484</v>
+        <v>15941015.34003143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>184120.4607402484</v>
+        <v>15941015.34003143</v>
       </c>
       <c r="M4" t="n">
-        <v>696958.9669942633</v>
+        <v>61402641.33699911</v>
       </c>
       <c r="N4" t="n">
-        <v>11361855.35814492</v>
+        <v>923597016.4015658</v>
       </c>
       <c r="O4" t="n">
-        <v>10953511.00540183</v>
+        <v>902839601.727118</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01620514035221006</v>
+        <v>0.01725970857088664</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01680926423038673</v>
+        <v>0.01765653091594179</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>10340</v>
       </c>
       <c r="C5" t="n">
-        <v>109</v>
+        <v>10303</v>
       </c>
       <c r="D5" t="n">
-        <v>93</v>
+        <v>9132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.8863437833640687</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.8831721470019342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09289780249835385</v>
+        <v>0.09026420469662112</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0785408693849719</v>
+        <v>0.07971883145933695</v>
       </c>
       <c r="I5" t="n">
-        <v>523961.5408676272</v>
+        <v>47924844.26765846</v>
       </c>
       <c r="J5" t="n">
-        <v>187108.0142754518</v>
+        <v>16839396.97316202</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>187108.0142754518</v>
+        <v>16839396.97316202</v>
       </c>
       <c r="M5" t="n">
-        <v>711069.5551430788</v>
+        <v>64764241.24082048</v>
       </c>
       <c r="N5" t="n">
-        <v>11517660.85818927</v>
+        <v>981614581.1341684</v>
       </c>
       <c r="O5" t="n">
-        <v>11106966.17486389</v>
+        <v>958614956.0512464</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01624531374722798</v>
+        <v>0.01715479506600808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01684600559051803</v>
+        <v>0.01756638248429519</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>112</v>
+        <v>10667</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>10640</v>
       </c>
       <c r="D6" t="n">
-        <v>95</v>
+        <v>9432</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.8864661654135338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.8842223680509984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09190722738373355</v>
+        <v>0.08827800578727582</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07795702322727401</v>
+        <v>0.07805738732404476</v>
       </c>
       <c r="I6" t="n">
-        <v>548708.848341326</v>
+        <v>50668659.16144493</v>
       </c>
       <c r="J6" t="n">
-        <v>196420.4853275503</v>
+        <v>17839816.11902389</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>196420.4853275503</v>
+        <v>17839816.11902389</v>
       </c>
       <c r="M6" t="n">
-        <v>745129.3336688762</v>
+        <v>68508475.28046882</v>
       </c>
       <c r="N6" t="n">
-        <v>12112094.92793495</v>
+        <v>1049528624.192984</v>
       </c>
       <c r="O6" t="n">
-        <v>11697629.4041098</v>
+        <v>1025805590.179856</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01621688787086141</v>
+        <v>0.01699793193610273</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01679147787487101</v>
+        <v>0.01739103031783636</v>
       </c>
     </row>
   </sheetData>
